--- a/data/mhn_-_moedas-de-ouro.csv.xlsx
+++ b/data/mhn_-_moedas-de-ouro.csv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="37">
   <si>
     <t>Colecao</t>
   </si>
@@ -43,6 +43,9 @@
     <t>1. Object Naming</t>
   </si>
   <si>
+    <t>2. Creator Information</t>
+  </si>
+  <si>
     <t>3. Physical Characteristics</t>
   </si>
   <si>
@@ -64,18 +67,12 @@
     <t>Work Type</t>
   </si>
   <si>
-    <t>Inscription</t>
+    <t>Creator</t>
   </si>
   <si>
     <t>Materials and Techniques</t>
   </si>
   <si>
-    <t>Measurements_diametro</t>
-  </si>
-  <si>
-    <t>Measurements_peso</t>
-  </si>
-  <si>
     <t>Physical Description</t>
   </si>
   <si>
@@ -91,7 +88,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Capitalize as inicais de nomes próprios e da primeira palavra, para outros termos use letras minúsculas</t>
+    <t>Capitalizar as inicais de nomes próprios e da primeira palavra, para outros termos use letras minúsculas</t>
   </si>
   <si>
     <t>Evitar abreviações</t>
@@ -113,18 +110,6 @@
   </si>
   <si>
     <t>Usar singular</t>
-  </si>
-  <si>
-    <t>Abreviar unidades métricas de acordo com o Sistema Internacional (m, cm, mm, g, kg, kb, Mb, Gb)</t>
-  </si>
-  <si>
-    <t>Medidas geralmente incluem duas casas decimais para medidas métricas</t>
-  </si>
-  <si>
-    <t>Não usar capitalização</t>
-  </si>
-  <si>
-    <t>Utilizar números inteiro ou frações decimais</t>
   </si>
   <si>
     <t>Anos com menos que 4 digitos, inserir 0 a esquerda</t>
@@ -497,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,10 +522,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -563,10 +548,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -589,10 +574,10 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -615,10 +600,10 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -641,10 +626,10 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -667,10 +652,10 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -693,16 +678,16 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1215</v>
       </c>
       <c r="G8">
-        <v>1215</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>1215</v>
@@ -719,10 +704,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -745,10 +730,10 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -771,10 +756,10 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -797,10 +782,10 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -823,16 +808,16 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F13">
-        <v>1215</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1215</v>
       </c>
       <c r="H13">
         <v>1215</v>
@@ -849,16 +834,16 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1215</v>
       </c>
       <c r="G14">
-        <v>1215</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>1215</v>
@@ -878,7 +863,7 @@
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -898,13 +883,13 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -924,13 +909,13 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -950,13 +935,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -976,13 +961,13 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1002,13 +987,13 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1028,19 +1013,19 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F21">
-        <v>1215</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1215</v>
       </c>
       <c r="H21">
         <v>1215</v>
@@ -1054,13 +1039,13 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F22">
         <v>1215</v>
@@ -1080,19 +1065,19 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F23">
-        <v>758</v>
+        <v>72</v>
       </c>
       <c r="G23">
-        <v>457</v>
+        <v>1143</v>
       </c>
       <c r="H23">
         <v>1215</v>
@@ -1106,19 +1091,19 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F24">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>1135</v>
+        <v>1213</v>
       </c>
       <c r="H24">
         <v>1215</v>
@@ -1132,19 +1117,19 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F25">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>1135</v>
+        <v>1215</v>
       </c>
       <c r="H25">
         <v>1215</v>
@@ -1158,19 +1143,19 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F26">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>1135</v>
+        <v>1215</v>
       </c>
       <c r="H26">
         <v>1215</v>
@@ -1184,13 +1169,13 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F27">
         <v>1215</v>
@@ -1210,13 +1195,13 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F28">
         <v>1215</v>
@@ -1236,19 +1221,19 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F29">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>1017</v>
+        <v>1215</v>
       </c>
       <c r="H29">
         <v>1215</v>
@@ -1262,19 +1247,19 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F30">
-        <v>80</v>
+        <v>1156</v>
       </c>
       <c r="G30">
-        <v>1135</v>
+        <v>59</v>
       </c>
       <c r="H30">
         <v>1215</v>
@@ -1288,19 +1273,19 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F31">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="G31">
-        <v>1135</v>
+        <v>1097</v>
       </c>
       <c r="H31">
         <v>1215</v>
@@ -1314,19 +1299,19 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F32">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>1135</v>
+        <v>1215</v>
       </c>
       <c r="H32">
         <v>1215</v>
@@ -1340,19 +1325,19 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F33">
-        <v>1215</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1215</v>
       </c>
       <c r="H33">
         <v>1215</v>
@@ -1366,19 +1351,19 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F34">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>1143</v>
+        <v>1215</v>
       </c>
       <c r="H34">
         <v>1215</v>
@@ -1392,19 +1377,19 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E35" t="s">
         <v>25</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="H35">
         <v>1215</v>
@@ -1418,13 +1403,13 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1444,13 +1429,13 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1470,19 +1455,19 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F38">
-        <v>1215</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1214</v>
       </c>
       <c r="H38">
         <v>1215</v>
@@ -1496,19 +1481,19 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F39">
-        <v>1215</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1215</v>
       </c>
       <c r="H39">
         <v>1215</v>
@@ -1522,19 +1507,19 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1215</v>
       </c>
       <c r="G40">
-        <v>1215</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <v>1215</v>
@@ -1548,333 +1533,21 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E41" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F41">
-        <v>1156</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>59</v>
+        <v>1215</v>
       </c>
       <c r="H41">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" t="s">
-        <v>25</v>
-      </c>
-      <c r="F42">
-        <v>118</v>
-      </c>
-      <c r="G42">
-        <v>1097</v>
-      </c>
-      <c r="H42">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" t="s">
-        <v>26</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>1215</v>
-      </c>
-      <c r="H43">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44">
-        <v>1215</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" t="s">
-        <v>31</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>1215</v>
-      </c>
-      <c r="H45">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>1215</v>
-      </c>
-      <c r="H46">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>1215</v>
-      </c>
-      <c r="H47">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" t="s">
-        <v>27</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>1215</v>
-      </c>
-      <c r="H48">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" t="s">
-        <v>32</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>1215</v>
-      </c>
-      <c r="H49">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" t="s">
-        <v>24</v>
-      </c>
-      <c r="E50" t="s">
-        <v>25</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>1214</v>
-      </c>
-      <c r="H50">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" t="s">
-        <v>24</v>
-      </c>
-      <c r="E51" t="s">
-        <v>26</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>1215</v>
-      </c>
-      <c r="H51">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" t="s">
-        <v>24</v>
-      </c>
-      <c r="E52" t="s">
-        <v>29</v>
-      </c>
-      <c r="F52">
-        <v>1215</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" t="s">
-        <v>24</v>
-      </c>
-      <c r="E53" t="s">
-        <v>31</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>1215</v>
-      </c>
-      <c r="H53">
         <v>1215</v>
       </c>
     </row>
